--- a/results/mp/logistic/corona/confidence/126/desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="93">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,256 +40,259 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>falling</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>falling</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>drop</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
-    <t>low</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>cut</t>
+    <t>risk</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>buying</t>
-  </si>
-  <si>
     <t>prices</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>are</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
     <t>for</t>
-  </si>
-  <si>
-    <t>,</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,7 +658,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s">
         <v>55</v>
@@ -716,13 +719,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9459459459459459</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,7 +740,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -766,13 +769,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,16 +790,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L4">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="M4">
-        <v>34</v>
+        <v>113</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -808,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -816,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8611111111111112</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -834,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>0.9322033898305084</v>
@@ -866,13 +869,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8493150684931506</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C6">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,19 +887,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -908,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -916,49 +919,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8235294117647058</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7">
+        <v>250</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>42</v>
       </c>
-      <c r="D7">
-        <v>42</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <v>0.9150943396226415</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>9</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="L7">
-        <v>30</v>
-      </c>
-      <c r="M7">
-        <v>30</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -966,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -987,16 +990,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K8">
-        <v>0.8943661971830986</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1008,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1016,13 +1019,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.725</v>
+        <v>0.775</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1034,19 +1037,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K9">
-        <v>0.8929503916449086</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L9">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="M9">
-        <v>342</v>
+        <v>128</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1066,13 +1069,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7248677248677249</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="C10">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="D10">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1084,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>14</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="K10">
         <v>0.8888888888888888</v>
@@ -1116,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6802325581395349</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C11">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>351</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1134,19 +1137,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K11">
-        <v>0.8837209302325582</v>
+        <v>0.8848167539267016</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>338</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>339</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1155,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1166,13 +1169,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.686046511627907</v>
       </c>
       <c r="C12">
-        <v>26</v>
+        <v>354</v>
       </c>
       <c r="D12">
-        <v>26</v>
+        <v>354</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1184,31 +1187,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>162</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12">
+        <v>0.8839285714285714</v>
+      </c>
+      <c r="L12">
+        <v>99</v>
+      </c>
+      <c r="M12">
+        <v>99</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>13</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K12">
-        <v>0.8828125</v>
-      </c>
-      <c r="L12">
-        <v>113</v>
-      </c>
-      <c r="M12">
-        <v>113</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1216,13 +1219,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6440677966101694</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>126</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1234,19 +1237,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K13">
-        <v>0.8723404255319149</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1258,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1266,13 +1269,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6055555555555555</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C14">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>218</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1284,19 +1287,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K14">
-        <v>0.8679245283018868</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="M14">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1308,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1316,13 +1319,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5838926174496645</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="C15">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1334,19 +1337,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K15">
-        <v>0.8625</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1358,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1366,13 +1369,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5636363636363636</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1384,19 +1387,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1408,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1416,13 +1419,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5466666666666666</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C17">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D17">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1434,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K17">
-        <v>0.8571428571428571</v>
+        <v>0.8625</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1458,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1466,13 +1469,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5272727272727272</v>
+        <v>0.52</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1484,19 +1487,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.8235294117647058</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1508,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1516,13 +1519,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4888888888888889</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1534,19 +1537,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K19">
-        <v>0.8170731707317073</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L19">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1566,13 +1569,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4821428571428572</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1584,19 +1587,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K20">
-        <v>0.7948717948717948</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1608,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1616,13 +1619,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4007936507936508</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>101</v>
+        <v>35</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1634,10 +1637,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K21">
         <v>0.7916666666666666</v>
@@ -1666,38 +1669,38 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3875</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="C22">
+        <v>93</v>
+      </c>
+      <c r="D22">
+        <v>93</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>159</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22">
+        <v>0.775</v>
+      </c>
+      <c r="L22">
         <v>31</v>
       </c>
-      <c r="D22">
+      <c r="M22">
         <v>31</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>49</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>49</v>
-      </c>
-      <c r="M22">
-        <v>49</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1708,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1716,13 +1719,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3636363636363636</v>
+        <v>0.3375</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1734,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K23">
-        <v>0.775</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1787,16 +1790,16 @@
         <v>276</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K24">
-        <v>0.76</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1808,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1816,13 +1819,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1833333333333333</v>
+        <v>0.2033333333333333</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1834,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K25">
-        <v>0.7441176470588236</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="L25">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>253</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1858,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1866,37 +1869,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.08873720136518772</v>
+        <v>0.03968938740293356</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>267</v>
+        <v>1113</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K26">
-        <v>0.7428571428571429</v>
+        <v>0.74</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1908,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1916,37 +1919,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03451251078515962</v>
+        <v>0.03465025906735751</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="D27">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="F27">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1119</v>
+        <v>2981</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K27">
-        <v>0.7389830508474576</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L27">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>218</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1958,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1966,37 +1969,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03259115843820587</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="C28">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>109</v>
+        <v>36</v>
       </c>
       <c r="E28">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F28">
-        <v>0.9299999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>2998</v>
+        <v>846</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K28">
+        <v>0.7127659574468085</v>
+      </c>
+      <c r="L28">
         <v>67</v>
       </c>
-      <c r="K28">
-        <v>0.7280334728033473</v>
-      </c>
-      <c r="L28">
-        <v>174</v>
-      </c>
       <c r="M28">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2008,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2016,37 +2019,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02210724365004704</v>
+        <v>0.02365863962822138</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E29">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="F29">
-        <v>0.73</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2079</v>
+        <v>2311</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K29">
-        <v>0.6923076923076923</v>
+        <v>0.7084745762711865</v>
       </c>
       <c r="L29">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="M29">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2058,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2066,37 +2069,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01966955153422502</v>
+        <v>0.02262016965127239</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="E30">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="F30">
-        <v>0.5800000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1246</v>
+        <v>2074</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K30">
-        <v>0.6595744680851063</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L30">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="M30">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2116,37 +2119,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01738024586689275</v>
+        <v>0.01497137824746808</v>
       </c>
       <c r="C31">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D31">
+        <v>72</v>
+      </c>
+      <c r="E31">
+        <v>0.53</v>
+      </c>
+      <c r="F31">
+        <v>0.47</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>2237</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K31">
+        <v>0.6853932584269663</v>
+      </c>
+      <c r="L31">
         <v>61</v>
       </c>
-      <c r="E31">
-        <v>0.33</v>
-      </c>
-      <c r="F31">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>2318</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K31">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L31">
-        <v>46</v>
-      </c>
       <c r="M31">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2158,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2166,37 +2169,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01182654402102497</v>
+        <v>0.01309596889707387</v>
       </c>
       <c r="C32">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D32">
-        <v>53</v>
+        <v>173</v>
       </c>
       <c r="E32">
-        <v>0.49</v>
+        <v>0.63</v>
       </c>
       <c r="F32">
-        <v>0.51</v>
+        <v>0.37</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2256</v>
+        <v>4823</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K32">
-        <v>0.651685393258427</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L32">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2208,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2216,37 +2219,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01137477936850363</v>
+        <v>0.01298445799724572</v>
       </c>
       <c r="C33">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D33">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="E33">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="F33">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>5041</v>
+        <v>5017</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K33">
-        <v>0.547945205479452</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2258,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2266,37 +2269,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.01028517999064984</v>
+        <v>0.01222378937470616</v>
       </c>
       <c r="C34">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D34">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E34">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="F34">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>4234</v>
+        <v>2101</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K34">
-        <v>0.5245901639344263</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2316,297 +2319,369 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.009122237989053315</v>
+        <v>0.01218654792594329</v>
       </c>
       <c r="C35">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D35">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E35">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="F35">
-        <v>0.42</v>
+        <v>0.46</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>4888</v>
+        <v>4215</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K35">
+        <v>0.546875</v>
+      </c>
+      <c r="L35">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>35</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.01047339757017176</v>
+      </c>
+      <c r="C36">
+        <v>25</v>
+      </c>
+      <c r="D36">
+        <v>83</v>
+      </c>
+      <c r="E36">
+        <v>0.7</v>
+      </c>
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>2362</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K36">
+        <v>0.5138888888888888</v>
+      </c>
+      <c r="L36">
+        <v>37</v>
+      </c>
+      <c r="M36">
+        <v>38</v>
+      </c>
+      <c r="N36">
+        <v>0.97</v>
+      </c>
+      <c r="O36">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.009671179883945842</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>113</v>
+      </c>
+      <c r="E37">
+        <v>0.78</v>
+      </c>
+      <c r="F37">
+        <v>0.22</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>2560</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K37">
         <v>0.4871794871794872</v>
       </c>
-      <c r="L35">
+      <c r="L37">
         <v>38</v>
       </c>
-      <c r="M35">
+      <c r="M37">
         <v>38</v>
       </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
-      <c r="J36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36">
-        <v>0.484375</v>
-      </c>
-      <c r="L36">
-        <v>31</v>
-      </c>
-      <c r="M36">
-        <v>31</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.00940032414910859</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
+      </c>
+      <c r="D38">
+        <v>145</v>
+      </c>
+      <c r="E38">
+        <v>0.8</v>
+      </c>
+      <c r="F38">
+        <v>0.2</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>3056</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K38">
+        <v>0.459016393442623</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>28</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37">
-        <v>0.4406779661016949</v>
-      </c>
-      <c r="L37">
-        <v>26</v>
-      </c>
-      <c r="M37">
-        <v>26</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>0.4385964912280702</v>
-      </c>
-      <c r="L38">
-        <v>25</v>
-      </c>
-      <c r="M38">
-        <v>25</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="J39" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.287037037037037</v>
+        <v>0.456140350877193</v>
       </c>
       <c r="L39">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>31</v>
-      </c>
-      <c r="M39">
-        <v>32</v>
-      </c>
-      <c r="N39">
-        <v>0.97</v>
-      </c>
-      <c r="O39">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K40">
-        <v>0.1351351351351351</v>
+        <v>0.2990654205607476</v>
       </c>
       <c r="L40">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>160</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.08794788273615635</v>
+        <v>0.217741935483871</v>
       </c>
       <c r="L41">
         <v>27</v>
       </c>
       <c r="M41">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N41">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>280</v>
+        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K42">
-        <v>0.08650519031141868</v>
+        <v>0.09558823529411764</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>264</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K43">
-        <v>0.06359832635983263</v>
+        <v>0.07451923076923077</v>
       </c>
       <c r="L43">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="M43">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="N43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>1119</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K44">
+        <v>0.06527196652719665</v>
+      </c>
+      <c r="L44">
+        <v>78</v>
+      </c>
+      <c r="M44">
         <v>83</v>
       </c>
-      <c r="K44">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="L44">
-        <v>32</v>
-      </c>
-      <c r="M44">
-        <v>35</v>
-      </c>
       <c r="N44">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O44">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>512</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K45">
-        <v>0.0335707019328586</v>
+        <v>0.04175152749490835</v>
       </c>
       <c r="L45">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M45">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="N45">
         <v>0.85</v>
@@ -2618,125 +2693,125 @@
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>950</v>
+        <v>941</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K46">
-        <v>0.03111111111111111</v>
+        <v>0.04037267080745342</v>
       </c>
       <c r="L46">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M46">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N46">
-        <v>0.97</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O46">
-        <v>0.03000000000000003</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>872</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>0.02791145332050048</v>
+        <v>0.03656998738965952</v>
       </c>
       <c r="L47">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="M47">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>0.8</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>1010</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>0.02714932126696833</v>
+        <v>0.03323262839879154</v>
       </c>
       <c r="L48">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="M48">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="N48">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="O48">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2580</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.02595228128924236</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="L49">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="M49">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="N49">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="O49">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>2327</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>0.02507051081165779</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="L50">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M50">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N50">
         <v>0.89</v>
@@ -2748,125 +2823,125 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>3111</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.01702395964691047</v>
+        <v>0.02908805031446541</v>
       </c>
       <c r="L51">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M51">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="N51">
-        <v>0.77</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O51">
-        <v>0.23</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>1559</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="K52">
-        <v>0.01691419141914191</v>
+        <v>0.02396694214876033</v>
       </c>
       <c r="L52">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="M52">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="N52">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="O52">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2383</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K53">
-        <v>0.01292343841785784</v>
+        <v>0.02210056772100568</v>
       </c>
       <c r="L53">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="M53">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="N53">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="O53">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>5041</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="K54">
-        <v>0.0127247020803878</v>
+        <v>0.01968253968253968</v>
       </c>
       <c r="L54">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="N54">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="O54">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>4888</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K55">
-        <v>0.01167133520074697</v>
+        <v>0.01670329670329671</v>
       </c>
       <c r="L55">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M55">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="N55">
         <v>0.53</v>
@@ -2878,33 +2953,85 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>4234</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K56">
-        <v>0.01139351446099912</v>
+        <v>0.01608158462443617</v>
       </c>
       <c r="L56">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="M56">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="N56">
-        <v>0.49</v>
+        <v>0.55</v>
       </c>
       <c r="O56">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>2256</v>
+        <v>5017</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K57">
+        <v>0.01454033771106942</v>
+      </c>
+      <c r="L57">
+        <v>31</v>
+      </c>
+      <c r="M57">
+        <v>57</v>
+      </c>
+      <c r="N57">
+        <v>0.54</v>
+      </c>
+      <c r="O57">
+        <v>0.46</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K58">
+        <v>0.01426566884939195</v>
+      </c>
+      <c r="L58">
+        <v>61</v>
+      </c>
+      <c r="M58">
+        <v>113</v>
+      </c>
+      <c r="N58">
+        <v>0.54</v>
+      </c>
+      <c r="O58">
+        <v>0.46</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4215</v>
       </c>
     </row>
   </sheetData>
